--- a/calculs and stuff.xlsx
+++ b/calculs and stuff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Devoirs\Simulation_Marche_Aleatoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128A6891-5F3D-4CF2-A5A4-C5AD1AAEAE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23A1C4-291A-4D3B-AAA4-F3C7468EE05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S_1_to_500" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>S</t>
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U fails</t>
   </si>
 </sst>
 </file>
@@ -66,11 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3524,7 +3531,3187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Marches Classiques (C)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S_1_to_500!$D$2:$D$502</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="501"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9597999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.988200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.1852</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.764600000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.8764</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.9102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.143799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.857199999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.585599999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.1312</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.8918</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.788399999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.202200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.404800000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.1326</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.183599999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.229399999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.276000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.902200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.1708</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.297400000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.536200000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.436399999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.563200000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.547600000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.156599999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.321199999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.135399999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46.375599999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.994199999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.848799999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.4818</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.927599999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.817799999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.5824</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53.9938</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55.532400000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.726399999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.8414</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>58.8568</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.729399999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.488</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61.972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62.345999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64.471599999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65.860399999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>65.286799999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66.934399999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67.715800000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69.197999999999993</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>69.727199999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71.194400000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>71.536799999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>72.682000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74.941999999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75.304000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>74.975200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76.417599999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78.142600000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79.592799999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.559799999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81.234800000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.062399999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82.8964</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.589200000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85.037199999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85.827399999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>85.664400000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87.739800000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88.648399999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>88.933599999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91.220799999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>91.153000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.5852</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93.898399999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94.186000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.203599999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97.320400000000006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98.1524</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>101.1704</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.5192</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.22199999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102.29600000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103.7368</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104.5642</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.3652</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106.26139999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>106.2196</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>106.5964</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109.53360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>109.3326</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.3032</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>110.71120000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>112.318</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>113.85639999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.4556</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117.2876</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.1528</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>117.3104</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120.78279999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>119.7448</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122.7068</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123.6944</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>123.65940000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.2424</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>124.038</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127.73399999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>125.63979999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>128.9228</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>127.9832</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.1294</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.53919999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>136.26759999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>133.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>133.75659999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.85079999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>134.59379999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>138.60040000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>139.05619999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141.18520000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142.1508</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143.42920000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>146.5112</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145.65719999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>145.85640000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>146.9836</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>147.779</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149.43600000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>149.51079999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151.1224</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152.22319999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>152.2612</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>152.75239999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155.91239999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.44820000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>155.45240000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158.84440000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>157.04519999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>162.30860000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.63640000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>161.0882</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.13480000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164.4246</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165.58</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166.52160000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>169.63640000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>166.47739999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>168.3192</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>167.72739999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>168.76</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>171.6942</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173.17439999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174.52279999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.75880000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>173.11340000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>175.53039999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178.05840000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>177.80680000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>179.0308</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.72919999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>181.09700000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183.04640000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184.571</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>184.69239999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>188.73840000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.63120000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188.7242</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>187.04320000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>189.577</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>190.8244</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.32259999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>192.0164</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>190.7132</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>193.1636</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>190.49440000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>200.90799999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>200.44479999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>196.8852</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>198.1532</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>204.70079999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>199.63220000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>206.41120000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204.4444</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>204.14240000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>210.02459999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>202.51079999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>210.12979999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209.47839999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>212.74940000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>213.28559999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212.18979999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>210.26320000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215.07140000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>214.6968</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>215.9804</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218.23079999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219.9248</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220.45679999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>218.69640000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>220.19280000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223.33420000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>221.77119999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>219.9186</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226.578</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>228.613</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228.5052</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>226.9864</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>228.19720000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230.27119999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232.80199999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>226.62479999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234.886</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235.42240000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236.90360000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>234.5326</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237.87280000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239.9316</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>238.29040000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>243.55680000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>239.59039999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242.03819999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>245.86320000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>240.386</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>243.7432</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247.3588</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>246.7002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>252.89920000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251.67939999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>250.7252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>259.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253.71960000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>253.60759999999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>253.61840000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256.60320000000002</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257.98439999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>261.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260.82319999999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>258.29739999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>256.4828</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>260.01859999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>257.06959999999998</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>262.6078</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>261.98399999999998</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266.5496</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>265.00560000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>270.00700000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>272.38959999999997</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>269.3048</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>267.33640000000003</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272.09559999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>268.23360000000002</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>278.21420000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276.78440000000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>275.27080000000001</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>275.51400000000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>274.54180000000002</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>275.68639999999999</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>279.14519999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>280.13639999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>284.06139999999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>278.35039999999998</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>279.1302</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>283.50400000000002</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287.22460000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>286.76479999999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>291.72640000000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>288.12520000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291.03300000000002</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>293.91520000000003</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>292.60320000000002</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>289.51940000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296.99079999999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296.86360000000002</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>296.25479999999999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>297.0292</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>303.66680000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>299.6542</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301.9984</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302.64280000000002</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>305.14760000000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>301.36540000000002</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305.49599999999998</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>305.3784</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>303.976</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>310.05880000000002</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310.20240000000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>309.2792</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>305.60039999999998</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313.25560000000002</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314.56760000000003</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>312.90140000000002</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>313.49040000000002</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>318.1044</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>315.46159999999998</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>317.25560000000002</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319.77760000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>319.27839999999998</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>326.75080000000003</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>320.65440000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>319.38279999999997</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>322.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326.40679999999998</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>323.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>325.27839999999998</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>332.68979999999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>331.39920000000001</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>327.81920000000002</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>329.82960000000003</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>335.93259999999998</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>330.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>332.30419999999998</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>338.49160000000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>333.24299999999999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>342.41480000000001</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339.40440000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>343.44040000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>338.05239999999998</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>341.1712</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>341.12560000000002</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>342.58859999999999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>339.43400000000003</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>343.49279999999999</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>351.17919999999998</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>345.75240000000002</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>352.76639999999998</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>345.459</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>346.15120000000002</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>351.91460000000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>357.09120000000001</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>360.20479999999998</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>353.48320000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356.67340000000002</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358.76280000000003</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>361.29320000000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360.01679999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>360.1628</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>360.65359999999998</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>362.12419999999997</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>362.84359999999998</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>366.34699999999998</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>363.10759999999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>359.012</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368.17360000000002</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369.33359999999999</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370.13560000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>367.23180000000002</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>374.928</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>375.40280000000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>371.05279999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>378.58260000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>372.38040000000001</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>373.5324</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>376.70679999999999</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>374.57240000000002</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>381.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>377.66640000000001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>376.28160000000003</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383.108</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>381.0872</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>384.06900000000002</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>385.17360000000002</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387.25279999999998</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>389.39080000000001</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>388.2842</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>389.66120000000001</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>393.07080000000002</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>390.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>390.83240000000001</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>389.33120000000002</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>388.60919999999999</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>398.52879999999999</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397.26339999999999</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>394.79880000000003</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>398.63080000000002</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>401.36840000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>393.65940000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>404.50959999999998</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>404.94220000000001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>408.12520000000001</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>404.06720000000001</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406.63959999999997</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>399.52440000000001</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>410.45679999999999</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>405.27499999999998</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>409.88679999999999</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>422.60480000000001</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>416.5136</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>409.5138</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>415.21559999999999</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415.21859999999998</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>412.92320000000001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>420.8202</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>422.54160000000002</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>415.8938</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>418.06040000000002</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>415.423</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>418.34</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>422.00959999999998</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424.6952</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>422.69659999999999</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>427.12639999999999</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>423.43720000000002</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>431.28879999999998</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>425.03120000000001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>425.1</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>428.78</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>425.49239999999998</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433.06</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>428.42079999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>432.07440000000003</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>434.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>443.35539999999997</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>434.3424</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>442.83940000000001</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440.0136</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>438.84840000000003</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>438.30239999999998</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>436.83920000000001</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445.20119999999997</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>442.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>449.23559999999998</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>446.78039999999999</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>444.52600000000001</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>456.83760000000001</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451.65179999999998</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>457.96440000000001</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>451.32440000000003</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>443.88720000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>457.4742</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>461.73079999999999</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>455.76459999999997</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>457.6268</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>456.6814</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>454.24759999999998</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>464.58420000000001</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>464.24560000000002</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>451.67680000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>463.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>454.79379999999998</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>470.18720000000002</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>464.73259999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>456.28960000000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>465.24</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>467.67160000000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>470.22359999999998</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>473.46</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>474.2758</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>469.2876</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>478.96839999999997</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>482.8064</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>475.83620000000002</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>477.59559999999999</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>475.99239999999998</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>475.87560000000002</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>478.40339999999998</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>478.58800000000002</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>482.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>480.72160000000002</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485.8082</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495.25880000000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>490.41559999999998</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>492.38600000000002</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>485.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>483.42439999999999</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>495.96780000000001</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>487.45800000000003</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>495.38740000000001</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>489.52159999999998</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>492.19060000000002</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>494.68959999999998</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>494.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>496.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>489.58760000000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>503.23520000000002</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>502.03840000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5812-41E2-900D-1A28C579B792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="595513328"/>
+        <c:axId val="595516936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="595513328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" b="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595516936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595516936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>moyenne des distances au carrée pour 10 000 marches</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595513328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>U</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S_1_to_500!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5552000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0112000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.3268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.4396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.158799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.627600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.121200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.8856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.996200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.792400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.223599999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.238399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.359200000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.982599999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.886000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.878799999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.521999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.264200000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.272799999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.497200000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70.957800000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78.699399999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80.783199999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.550399999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88.423199999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.659800000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.743200000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.062200000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>103.1236</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110.00239999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>113.7226</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>117.58799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120.22499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>126.932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129.47839999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>136.1592</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138.7132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141.45320000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>146.8278</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>151.6628</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>154.25620000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>161.46</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>166.00620000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>167.31479999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>172.16540000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>175.226</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>180.47720000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>185.64279999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>190.7158</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>194.1284</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>199.81180000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>202.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>205.9374</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>213.4024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>216.79560000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>221.0864</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>226.0718</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>230.10640000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>237.0188</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>240.54</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>246.14760000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>255.2996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>258.01580000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>262.75240000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>265.77280000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>270.20960000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>275.05700000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>280.892</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>286.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>291.06400000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>296.464</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>302.8408</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>307.67880000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>310.50360000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>321.49439999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>325.53280000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>332.09160000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>332.65320000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>338.20400000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>339.4144</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>348.97199999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>356.8032</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>358.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>366.91719999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>376.13319999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>371.57119999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>381.23540000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>385.2928</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>386.08460000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>395.83479999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>401.178</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>413.68119999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>412.84280000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01B0-4723-8DD9-62D47CB54186}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="650231312"/>
+        <c:axId val="650232952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="650231312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650232952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650232952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650231312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>U</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> fails</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>S_1_to_500!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3082</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3194</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3687</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4326</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4606</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5297</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5730</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6104</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6473</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6813</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6957</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7288</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7672</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8504</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9018</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9382</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9743</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10051</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10477</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10686</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10856</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11452</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11919</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12278</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12563</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13188</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13535</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14396</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14458</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15257</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15655</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16733</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17486</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17266</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18431</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19149</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19186</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19597</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20056</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21219</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22013</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23283</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23323</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24330</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25522</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26613</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26802</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27315</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28388</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29124</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29315</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30578</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>30966</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31851</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33518</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34080</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4ADC-4022-ADAF-05BD0C98BA03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="509589536"/>
+        <c:axId val="509595768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="509589536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509595768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="509595768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509589536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4080,20 +7267,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38096</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295271</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4113,6 +8848,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB94A5-8B8F-4AA8-BEB2-1BDE196FC592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2005E09A-F31F-499C-829A-19BA0084E7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3674682B-4A92-443C-B7FB-DE10151A2596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4423,8 +9266,8 @@
   </sheetPr>
   <dimension ref="A1:H502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4436,6 +9279,12 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -4450,8 +9299,12 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -4468,6 +9321,12 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -4482,6 +9341,12 @@
       <c r="D4" s="3">
         <v>1.984</v>
       </c>
+      <c r="E4" s="4">
+        <v>2.661</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -4496,6 +9361,12 @@
       <c r="D5" s="3">
         <v>2.9940000000000002</v>
       </c>
+      <c r="E5" s="4">
+        <v>4.5552000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -4510,6 +9381,12 @@
       <c r="D6" s="3">
         <v>3.9630000000000001</v>
       </c>
+      <c r="E6" s="4">
+        <v>6.6745999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -4524,6 +9401,12 @@
       <c r="D7" s="3">
         <v>4.9276</v>
       </c>
+      <c r="E7" s="4">
+        <v>9.0112000000000005</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -4538,6 +9421,12 @@
       <c r="D8" s="3">
         <v>1.19</v>
       </c>
+      <c r="E8" s="4">
+        <v>11.3268</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -4552,6 +9441,12 @@
       <c r="D9" s="3">
         <v>1.19</v>
       </c>
+      <c r="E9" s="4">
+        <v>13.4396</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -4566,6 +9461,12 @@
       <c r="D10" s="3">
         <v>1.19</v>
       </c>
+      <c r="E10" s="4">
+        <v>16.158799999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -4580,6 +9481,12 @@
       <c r="D11" s="3">
         <v>1.19</v>
       </c>
+      <c r="E11" s="4">
+        <v>18.627600000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -4594,6 +9501,12 @@
       <c r="D12" s="3">
         <v>9.9597999999999995</v>
       </c>
+      <c r="E12" s="4">
+        <v>21.121200000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -4608,6 +9521,12 @@
       <c r="D13" s="3">
         <v>1.19</v>
       </c>
+      <c r="E13" s="4">
+        <v>23.8856</v>
+      </c>
+      <c r="F13" s="4">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -4622,6 +9541,12 @@
       <c r="D14" s="3">
         <v>11.988200000000001</v>
       </c>
+      <c r="E14" s="4">
+        <v>26.996200000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -4636,6 +9561,12 @@
       <c r="D15" s="3">
         <v>12.742000000000001</v>
       </c>
+      <c r="E15" s="4">
+        <v>29.792400000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -4650,8 +9581,14 @@
       <c r="D16" s="3">
         <v>13.906000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>32.198</v>
+      </c>
+      <c r="F16" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4664,8 +9601,14 @@
       <c r="D17" s="3">
         <v>15.1852</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>35.223599999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4678,8 +9621,14 @@
       <c r="D18" s="3">
         <v>15.9956</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <v>38.238399999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4692,8 +9641,14 @@
       <c r="D19" s="3">
         <v>17.026</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>41.359200000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4706,8 +9661,14 @@
       <c r="D20" s="3">
         <v>17.764600000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="4">
+        <v>43.982599999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4720,8 +9681,14 @@
       <c r="D21" s="3">
         <v>18.8764</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="4">
+        <v>46.886000000000003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4734,8 +9701,14 @@
       <c r="D22" s="3">
         <v>19.9102</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>49.878799999999998</v>
+      </c>
+      <c r="F22" s="4">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4748,8 +9721,14 @@
       <c r="D23" s="3">
         <v>20.94</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>53.521999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4762,8 +9741,14 @@
       <c r="D24" s="3">
         <v>22.143799999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>56.264200000000002</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4776,8 +9761,14 @@
       <c r="D25" s="3">
         <v>22.857199999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>60.554000000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4790,8 +9781,14 @@
       <c r="D26" s="3">
         <v>23.585599999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>63.272799999999997</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4804,8 +9801,14 @@
       <c r="D27" s="3">
         <v>25.1312</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="4">
+        <v>66.497200000000007</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4818,8 +9821,14 @@
       <c r="D28" s="3">
         <v>25.8918</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>70.957800000000006</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4832,8 +9841,14 @@
       <c r="D29" s="3">
         <v>26.788399999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="4">
+        <v>74.554000000000002</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4846,8 +9861,14 @@
       <c r="D30" s="3">
         <v>28.202200000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>78.699399999999997</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4860,8 +9881,14 @@
       <c r="D31" s="3">
         <v>28.404800000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>80.783199999999994</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4874,8 +9901,14 @@
       <c r="D32" s="3">
         <v>30.1326</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>84.550399999999996</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4888,8 +9921,14 @@
       <c r="D33" s="3">
         <v>31.183599999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>88.423199999999994</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4902,8 +9941,14 @@
       <c r="D34" s="3">
         <v>32.229399999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="4">
+        <v>92.659800000000004</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4916,8 +9961,14 @@
       <c r="D35" s="3">
         <v>32.781999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="4">
+        <v>94.743200000000002</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4930,8 +9981,14 @@
       <c r="D36" s="3">
         <v>34.002000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="4">
+        <v>99.062200000000004</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4944,8 +10001,14 @@
       <c r="D37" s="3">
         <v>34.276000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="4">
+        <v>103.1236</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4958,8 +10021,14 @@
       <c r="D38" s="3">
         <v>35.902200000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E38" s="4">
+        <v>107.35599999999999</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4972,8 +10041,14 @@
       <c r="D39" s="3">
         <v>37.1708</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E39" s="4">
+        <v>110.00239999999999</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4986,8 +10061,14 @@
       <c r="D40" s="3">
         <v>37.297400000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E40" s="4">
+        <v>113.7226</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5000,8 +10081,14 @@
       <c r="D41" s="3">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E41" s="4">
+        <v>117.58799999999999</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5014,8 +10101,14 @@
       <c r="D42" s="3">
         <v>40.536200000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E42" s="4">
+        <v>120.22499999999999</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5028,8 +10121,14 @@
       <c r="D43" s="3">
         <v>41.436399999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E43" s="4">
+        <v>126.932</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5042,8 +10141,14 @@
       <c r="D44" s="3">
         <v>42.563200000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E44" s="4">
+        <v>129.47839999999999</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5056,8 +10161,14 @@
       <c r="D45" s="3">
         <v>42.547600000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E45" s="4">
+        <v>136.1592</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5070,8 +10181,14 @@
       <c r="D46" s="3">
         <v>44.156599999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E46" s="4">
+        <v>138.7132</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5084,8 +10201,14 @@
       <c r="D47" s="3">
         <v>45.321199999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E47" s="4">
+        <v>141.45320000000001</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5098,8 +10221,14 @@
       <c r="D48" s="3">
         <v>45.135399999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E48" s="4">
+        <v>146.8278</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5112,8 +10241,14 @@
       <c r="D49" s="3">
         <v>46.375599999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E49" s="4">
+        <v>151.6628</v>
+      </c>
+      <c r="F49" s="4">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5126,8 +10261,14 @@
       <c r="D50" s="3">
         <v>48.994199999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E50" s="4">
+        <v>154.25620000000001</v>
+      </c>
+      <c r="F50" s="4">
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5140,8 +10281,14 @@
       <c r="D51" s="3">
         <v>49.848799999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E51" s="4">
+        <v>161.46</v>
+      </c>
+      <c r="F51" s="4">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5154,8 +10301,14 @@
       <c r="D52" s="3">
         <v>50.4818</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E52" s="4">
+        <v>166.00620000000001</v>
+      </c>
+      <c r="F52" s="4">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5168,8 +10321,14 @@
       <c r="D53" s="3">
         <v>51.927599999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E53" s="4">
+        <v>167.31479999999999</v>
+      </c>
+      <c r="F53" s="4">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5182,8 +10341,14 @@
       <c r="D54" s="3">
         <v>51.817799999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E54" s="4">
+        <v>172.16540000000001</v>
+      </c>
+      <c r="F54" s="4">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5196,8 +10361,14 @@
       <c r="D55" s="3">
         <v>53.5824</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E55" s="4">
+        <v>175.226</v>
+      </c>
+      <c r="F55" s="4">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5210,8 +10381,14 @@
       <c r="D56" s="3">
         <v>53.9938</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E56" s="4">
+        <v>180.47720000000001</v>
+      </c>
+      <c r="F56" s="4">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5224,8 +10401,14 @@
       <c r="D57" s="3">
         <v>55.532400000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E57" s="4">
+        <v>185.64279999999999</v>
+      </c>
+      <c r="F57" s="4">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5238,8 +10421,14 @@
       <c r="D58" s="3">
         <v>56.247999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E58" s="4">
+        <v>190.7158</v>
+      </c>
+      <c r="F58" s="4">
+        <v>9018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5252,8 +10441,14 @@
       <c r="D59" s="3">
         <v>56.726399999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E59" s="4">
+        <v>194.1284</v>
+      </c>
+      <c r="F59" s="4">
+        <v>9382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5266,8 +10461,14 @@
       <c r="D60" s="3">
         <v>57.8414</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E60" s="4">
+        <v>199.81180000000001</v>
+      </c>
+      <c r="F60" s="4">
+        <v>9743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5280,8 +10481,14 @@
       <c r="D61" s="3">
         <v>58.8568</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E61" s="4">
+        <v>202.87200000000001</v>
+      </c>
+      <c r="F61" s="4">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5294,8 +10501,14 @@
       <c r="D62" s="3">
         <v>59.729399999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E62" s="4">
+        <v>205.9374</v>
+      </c>
+      <c r="F62" s="4">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5308,8 +10521,14 @@
       <c r="D63" s="3">
         <v>61.488</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E63" s="4">
+        <v>213.4024</v>
+      </c>
+      <c r="F63" s="4">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5322,8 +10541,14 @@
       <c r="D64" s="3">
         <v>61.972999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E64" s="4">
+        <v>216.79560000000001</v>
+      </c>
+      <c r="F64" s="4">
+        <v>10856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5336,8 +10561,14 @@
       <c r="D65" s="3">
         <v>62.345999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E65" s="4">
+        <v>221.0864</v>
+      </c>
+      <c r="F65" s="4">
+        <v>11452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5350,8 +10581,14 @@
       <c r="D66" s="3">
         <v>64.471599999999995</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E66" s="4">
+        <v>226.0718</v>
+      </c>
+      <c r="F66" s="4">
+        <v>11919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5364,8 +10601,14 @@
       <c r="D67" s="3">
         <v>65.860399999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E67" s="4">
+        <v>230.10640000000001</v>
+      </c>
+      <c r="F67" s="4">
+        <v>12278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5378,8 +10621,14 @@
       <c r="D68" s="3">
         <v>65.286799999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E68" s="4">
+        <v>237.0188</v>
+      </c>
+      <c r="F68" s="4">
+        <v>12563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5392,8 +10641,14 @@
       <c r="D69" s="3">
         <v>66.934399999999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E69" s="4">
+        <v>240.54</v>
+      </c>
+      <c r="F69" s="4">
+        <v>13188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5406,8 +10661,14 @@
       <c r="D70" s="3">
         <v>67.715800000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E70" s="4">
+        <v>246.14760000000001</v>
+      </c>
+      <c r="F70" s="4">
+        <v>13535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5420,8 +10681,14 @@
       <c r="D71" s="3">
         <v>69.197999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E71" s="4">
+        <v>255.2996</v>
+      </c>
+      <c r="F71" s="4">
+        <v>14396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5434,8 +10701,14 @@
       <c r="D72" s="3">
         <v>69.727199999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E72" s="4">
+        <v>258.01580000000001</v>
+      </c>
+      <c r="F72" s="4">
+        <v>14458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5448,8 +10721,14 @@
       <c r="D73" s="3">
         <v>71.194400000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E73" s="4">
+        <v>262.75240000000002</v>
+      </c>
+      <c r="F73" s="4">
+        <v>15257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5462,8 +10741,14 @@
       <c r="D74" s="3">
         <v>71.536799999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E74" s="4">
+        <v>265.77280000000002</v>
+      </c>
+      <c r="F74" s="4">
+        <v>15655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5476,8 +10761,14 @@
       <c r="D75" s="3">
         <v>72.682000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E75" s="4">
+        <v>270.20960000000002</v>
+      </c>
+      <c r="F75" s="4">
+        <v>16375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5490,8 +10781,14 @@
       <c r="D76" s="3">
         <v>74.941999999999993</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E76" s="4">
+        <v>275.05700000000002</v>
+      </c>
+      <c r="F76" s="4">
+        <v>16733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5504,8 +10801,14 @@
       <c r="D77" s="3">
         <v>75.304000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E77" s="4">
+        <v>280.892</v>
+      </c>
+      <c r="F77" s="4">
+        <v>17486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5518,8 +10821,14 @@
       <c r="D78" s="3">
         <v>74.975200000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E78" s="4">
+        <v>286.54300000000001</v>
+      </c>
+      <c r="F78" s="4">
+        <v>17266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5532,8 +10841,14 @@
       <c r="D79" s="3">
         <v>76.417599999999993</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E79" s="4">
+        <v>291.06400000000002</v>
+      </c>
+      <c r="F79" s="4">
+        <v>18431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5546,8 +10861,14 @@
       <c r="D80" s="3">
         <v>78.142600000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E80" s="4">
+        <v>296.464</v>
+      </c>
+      <c r="F80" s="4">
+        <v>19149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5560,8 +10881,14 @@
       <c r="D81" s="3">
         <v>79.592799999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E81" s="4">
+        <v>302.8408</v>
+      </c>
+      <c r="F81" s="4">
+        <v>19186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5574,8 +10901,14 @@
       <c r="D82" s="3">
         <v>78.559799999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>307.67880000000002</v>
+      </c>
+      <c r="F82" s="4">
+        <v>19597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5588,8 +10921,14 @@
       <c r="D83" s="3">
         <v>81.234800000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E83" s="4">
+        <v>310.50360000000001</v>
+      </c>
+      <c r="F83" s="4">
+        <v>20056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5602,8 +10941,14 @@
       <c r="D84" s="3">
         <v>83.062399999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E84" s="4">
+        <v>321.49439999999998</v>
+      </c>
+      <c r="F84" s="4">
+        <v>21219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5616,8 +10961,14 @@
       <c r="D85" s="3">
         <v>82.8964</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E85" s="4">
+        <v>325.53280000000001</v>
+      </c>
+      <c r="F85" s="4">
+        <v>22013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5630,8 +10981,14 @@
       <c r="D86" s="3">
         <v>84.589200000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E86" s="4">
+        <v>332.09160000000003</v>
+      </c>
+      <c r="F86" s="4">
+        <v>22380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5644,8 +11001,14 @@
       <c r="D87" s="3">
         <v>85.037199999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E87" s="4">
+        <v>332.65320000000003</v>
+      </c>
+      <c r="F87" s="4">
+        <v>23283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5658,8 +11021,14 @@
       <c r="D88" s="3">
         <v>85.827399999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E88" s="4">
+        <v>338.20400000000001</v>
+      </c>
+      <c r="F88" s="4">
+        <v>23323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5672,8 +11041,14 @@
       <c r="D89" s="3">
         <v>85.664400000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E89" s="4">
+        <v>339.4144</v>
+      </c>
+      <c r="F89" s="4">
+        <v>24330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5686,8 +11061,14 @@
       <c r="D90" s="3">
         <v>87.739800000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E90" s="4">
+        <v>348.97199999999998</v>
+      </c>
+      <c r="F90" s="4">
+        <v>25522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5700,8 +11081,14 @@
       <c r="D91" s="3">
         <v>88.648399999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E91" s="4">
+        <v>356.8032</v>
+      </c>
+      <c r="F91" s="4">
+        <v>26613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5714,8 +11101,14 @@
       <c r="D92" s="3">
         <v>88.933599999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E92" s="4">
+        <v>358.91500000000002</v>
+      </c>
+      <c r="F92" s="4">
+        <v>26802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5728,8 +11121,14 @@
       <c r="D93" s="3">
         <v>91.220799999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E93" s="4">
+        <v>366.91719999999998</v>
+      </c>
+      <c r="F93" s="4">
+        <v>27315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5742,8 +11141,14 @@
       <c r="D94" s="3">
         <v>91.153000000000006</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E94" s="4">
+        <v>376.13319999999999</v>
+      </c>
+      <c r="F94" s="4">
+        <v>28388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5756,8 +11161,14 @@
       <c r="D95" s="3">
         <v>92.5852</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E95" s="4">
+        <v>371.57119999999998</v>
+      </c>
+      <c r="F95" s="4">
+        <v>29124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5770,8 +11181,14 @@
       <c r="D96" s="3">
         <v>93.898399999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E96" s="4">
+        <v>381.23540000000003</v>
+      </c>
+      <c r="F96" s="4">
+        <v>29315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5784,8 +11201,14 @@
       <c r="D97" s="3">
         <v>94.186000000000007</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E97" s="4">
+        <v>385.2928</v>
+      </c>
+      <c r="F97" s="4">
+        <v>30578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5798,8 +11221,14 @@
       <c r="D98" s="3">
         <v>97.203599999999994</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E98" s="4">
+        <v>386.08460000000002</v>
+      </c>
+      <c r="F98" s="4">
+        <v>30966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5812,8 +11241,14 @@
       <c r="D99" s="3">
         <v>97.320400000000006</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E99" s="4">
+        <v>395.83479999999997</v>
+      </c>
+      <c r="F99" s="4">
+        <v>31851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5826,8 +11261,14 @@
       <c r="D100" s="3">
         <v>98.1524</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E100" s="4">
+        <v>401.178</v>
+      </c>
+      <c r="F100" s="4">
+        <v>33518</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5840,8 +11281,14 @@
       <c r="D101" s="3">
         <v>101.1704</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E101" s="4">
+        <v>413.68119999999999</v>
+      </c>
+      <c r="F101" s="4">
+        <v>34080</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5854,8 +11301,14 @@
       <c r="D102" s="3">
         <v>101.5192</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E102" s="4">
+        <v>412.84280000000001</v>
+      </c>
+      <c r="F102" s="4">
+        <v>34651</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5869,7 +11322,7 @@
         <v>102.22199999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5883,7 +11336,7 @@
         <v>102.29600000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5897,7 +11350,7 @@
         <v>103.7368</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5911,7 +11364,7 @@
         <v>104.5642</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5925,7 +11378,7 @@
         <v>106.3652</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5939,7 +11392,7 @@
         <v>106.26139999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5953,7 +11406,7 @@
         <v>106.2196</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5967,7 +11420,7 @@
         <v>106.5964</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5981,7 +11434,7 @@
         <v>109.53360000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/calculs and stuff.xlsx
+++ b/calculs and stuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Devoirs\Simulation_Marche_Aleatoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23A1C4-291A-4D3B-AAA4-F3C7468EE05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5C89F-3242-416F-B42A-D3B04493B8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Marches</a:t>
+              <a:rPr lang="fr-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>sans-retour (S)</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3258,8 +3261,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
-                  <a:t>Nombre de pas</a:t>
+                  <a:rPr lang="fr-CA" b="1"/>
+                  <a:t>n</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3456,37 +3459,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:extLst>
@@ -9267,7 +9239,7 @@
   <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
